--- a/Three node model/load.xlsx
+++ b/Three node model/load.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.eicke\Documents\Locational-investment-signals\Three node model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{172DF196-69F6-4C30-BFFA-C440D25B89AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3EB404-EC9E-48A4-80A7-1D71A2A98C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>t</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>north</t>
   </si>
@@ -423,23 +420,21 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -454,7 +449,7 @@
       </c>
       <c r="D2">
         <f ca="1">B2*0.5 + C2*0.5 + (1000  - RANDBETWEEN(0,2000))</f>
-        <v>23156</v>
+        <v>21442</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -469,7 +464,7 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D11" ca="1" si="0">B3*0.5 + C3*0.5 + (1000  - RANDBETWEEN(0,2000))</f>
-        <v>23042</v>
+        <v>23071</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -484,7 +479,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>26861</v>
+        <v>27133</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -499,7 +494,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>31444</v>
+        <v>30227</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -514,7 +509,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>31954</v>
+        <v>30769</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -529,7 +524,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>29728</v>
+        <v>30177</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -544,7 +539,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>29249</v>
+        <v>29581</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -559,7 +554,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>30562</v>
+        <v>29891</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -574,7 +569,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>26587</v>
+        <v>27057</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,7 +584,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>23823</v>
+        <v>23899</v>
       </c>
     </row>
   </sheetData>
